--- a/Person/周宣/zuoye.xlsx
+++ b/Person/周宣/zuoye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zonghan\2019.1\软件工程 课上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDA018-E75D-4ABF-AF4F-C8B6B904BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DB487-47C4-4C53-87EA-865E9C22FF30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DD955AD-9547-46ED-AD1B-260F521EB318}"/>
+    <workbookView xWindow="-180" yWindow="1050" windowWidth="16620" windowHeight="9510" xr2:uid="{3DD955AD-9547-46ED-AD1B-260F521EB318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,87 +96,87 @@
     <t>Not Done</t>
   </si>
   <si>
-    <t>理想时间（minute）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望交易前有一个安全验证密码登录，以便于确保账户金额的安全。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行柜员，我希望系统有辨别金钱真假并提醒的功能，以便防止误收假钞给银行带来不必要的损失。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>辨别真假</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望有一个账户查询核实机制，以便于确保转账时金钱流向的正确性。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户核实</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行柜员，我想浏览交易的细节，这样我就可以回答客户提出的问题 。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览细节</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望交易过程中有相应的提示，以便于对交易过程详细步骤的了解。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易提示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行柜员，我希望有一个故障警告，以便于及时应对可能出现的问题。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障警告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望有对应账户金额的查询功能，以便于了解本账户内金额的详情。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额查询</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望进行交易后有一个账单凭证，以便于日后的核实与保障。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全凭条</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望有用户输入密码错误次数上限锁定功能，以便于更好管理财务安全。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全锁定</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为银行客户，我希望系统有拦截金额非法去向的功能，以便于及时补救操作不当带来的损失</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全拦截</t>
+    <t>作为一名求学者，我希望有一个教师和视频推荐，以便于减轻我对选择老师和课程的困惑。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想时间（h）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名求学者，我希望有查询功能，以便快速方便的找到自己想找的知识。。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名求学者，我希望有各类科目的单独选择，以便于更清晰的选择科目类型。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择科目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名求学者，我希望可以制定自己的学习计划，以便于有目标有计划的学习。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习计划</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名教育者，我希望可以进行作业的布置和作业的批改，以便于线上对学生学习情况的掌握进行相适应的教学。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业布置批改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名求学者，我希望在所学科目下获取我的作业，以便于我日后更加巩固自己所学内容。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取作业</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名求学者，我希望可以有用户收藏，以便于收藏感兴趣喜欢的课程，节省时间。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名教育者，我希望可以有个人收益，通过发布高效视频或者收费课程赚取收益。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人收益</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名运行商，我希望可以有消息通知，以便于对使用此软件的所有用户及时通知消息。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名运营商，我希望可以有用户反馈，以便于更加满足众多用户的需求来增加软件有效性。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -185,11 +185,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="0.00;\-0.00;;@\ "/>
-    <numFmt numFmtId="197" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
+    <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -558,25 +558,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="5" borderId="13">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="13">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -614,7 +611,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,7 +642,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -669,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AC524D-1589-4B01-8002-A6004E64F212}">
   <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,549 +1005,550 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="3.375" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="5"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:18" ht="74.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <v>2</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>98</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18">
+      <c r="L6" s="38"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17">
         <v>2</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="24"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="32">
-        <v>1</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28">
         <v>96</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="L7" s="38"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17">
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
         <v>0</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="24"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="32">
-        <v>1</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="27">
         <v>95</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="32">
-        <v>1</v>
-      </c>
-      <c r="K9" s="28">
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>94</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
         <v>93</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="L10" s="39"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18">
         <v>0</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="2:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20">
-        <v>5</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="32">
-        <v>1</v>
-      </c>
-      <c r="K10" s="28">
-        <v>93</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="2:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>6</v>
       </c>
-      <c r="C11" s="20">
-        <v>1</v>
-      </c>
-      <c r="D11" s="26">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>0.5</v>
       </c>
-      <c r="K11" s="28">
-        <v>90</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="K11" s="27">
+        <v>93</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18">
         <v>0</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>2</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>90</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="L12" s="38"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
         <v>0</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="24"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>8</v>
       </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>3</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <v>88</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18">
+      <c r="L13" s="38"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17">
         <v>2</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>0</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="24"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>9</v>
       </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="31">
         <v>2</v>
       </c>
-      <c r="K14" s="29">
-        <v>85</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18">
+      <c r="K14" s="28">
+        <v>88</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17">
         <v>3</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <v>0</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="24"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>10</v>
       </c>
-      <c r="C15" s="20">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <v>2</v>
       </c>
-      <c r="K15" s="29">
-        <v>85</v>
-      </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18">
+      <c r="K15" s="28">
+        <v>88</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17">
         <v>2</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="24"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="47" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G47" s="30"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G48" s="30"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
